--- a/biology/Zoologie/Formica_picea/Formica_picea.xlsx
+++ b/biology/Zoologie/Formica_picea/Formica_picea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica picea est une espèce de fourmis appartenant à la famille des Formicidae, à la sous-famille des Formicinae, au genre Formica, au sous-genre Serviformica.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des fourmis noires, très actives, longues de 3,5 à 5,5 mm.
 </t>
@@ -542,10 +556,12 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Formica fusca qui en diffère par la présence de poils dressés sur le thorax ;
-Formica lemani qui présente une faible pilosité couchée sur le gastre (segments élargis de l'abdomen)[1].</t>
+Formica lemani qui présente une faible pilosité couchée sur le gastre (segments élargis de l'abdomen).</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : de l'Espagne à la Turquie ; Asie : nord de l'Inde et Népal.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Landes tourbeuses et tourbières souvent en altitude. Faisant partie du sous-genre Formica (Serviformica), on peut la trouver utilisée comme esclave dans les nids de Formica sanguinea.
 </t>
@@ -635,7 +655,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica picea consomme de petits invertébrés mais surtout du miellat de pucerons qu'elle trouve dans les arbres (pins sylvestres, bouleaux, chênes) en Europe occidentale.
 </t>
@@ -666,9 +688,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 avril 2018)[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 avril 2018) :
 Formica transcaucasica Nassonov, 1889
 Formica transkaucasica Nasonov, 1889</t>
         </is>
